--- a/tira_dokumentointi/minionsheet.xlsx
+++ b/tira_dokumentointi/minionsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Militia</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Headhunter</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +494,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -500,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -508,7 +514,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -521,8 +527,11 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -535,8 +544,11 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -549,14 +561,17 @@
       <c r="D5" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -564,7 +579,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -577,8 +592,11 @@
       <c r="D9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -586,13 +604,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -605,14 +626,17 @@
       <c r="D11" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -620,7 +644,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -633,8 +657,11 @@
       <c r="D15" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -647,8 +674,11 @@
       <c r="D16" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -661,22 +691,28 @@
       <c r="D17" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -689,8 +725,14 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -703,14 +745,20 @@
       <c r="D22" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -718,7 +766,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -731,8 +779,11 @@
       <c r="D26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -745,14 +796,17 @@
       <c r="D27" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -760,7 +814,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -773,8 +827,11 @@
       <c r="D31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -786,6 +843,9 @@
       </c>
       <c r="D32" s="1">
         <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/tira_dokumentointi/minionsheet.xlsx
+++ b/tira_dokumentointi/minionsheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Militia</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Headhunter</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Production</t>
@@ -482,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +491,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -506,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -514,7 +511,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -527,11 +524,8 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -544,11 +538,8 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -561,17 +552,14 @@
       <c r="D5" s="1">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -579,7 +567,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -592,11 +580,8 @@
       <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -609,11 +594,8 @@
       <c r="D10" s="1">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -626,17 +608,14 @@
       <c r="D11" s="1">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -644,7 +623,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -657,11 +636,8 @@
       <c r="D15" s="6">
         <v>20</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -674,11 +650,8 @@
       <c r="D16" s="1">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -691,17 +664,14 @@
       <c r="D17" s="1">
         <v>40</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -709,10 +679,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -728,11 +698,8 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -748,17 +715,14 @@
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -766,7 +730,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -779,11 +743,8 @@
       <c r="D26" s="1">
         <v>25</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -796,17 +757,14 @@
       <c r="D27" s="1">
         <v>40</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -814,7 +772,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -827,11 +785,8 @@
       <c r="D31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -843,9 +798,6 @@
       </c>
       <c r="D32" s="1">
         <v>40</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
